--- a/plot results/table.xlsx
+++ b/plot results/table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohammad reza\Desktop\Tehran_covid_Large Language Models vs Classical Machine\Tehran_covid_Large-Language-Models-vs-Classical-Machine-learning\Tehran_covid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohammad reza\Desktop\Tehran_covid_Large Language Models vs Classical Machine\Tehran_covid_Large-Language-Models-vs-Classical-Machine-learning\plot results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210E2D9E-1ED9-420A-BE02-412F1157AF8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354CF1EA-5DA3-4D57-A8F2-9031B2A4265C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1992" yWindow="2676" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,13 +75,13 @@
     <t>Neural net</t>
   </si>
   <si>
-    <t>XGboost</t>
-  </si>
-  <si>
     <t>Zero shot classification</t>
   </si>
   <si>
     <t>Fine tuned LLM</t>
+  </si>
+  <si>
+    <t>Xgboost</t>
   </si>
 </sst>
 </file>
@@ -89,7 +89,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -168,19 +168,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="1" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -489,7 +489,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G9" activeCellId="1" sqref="C9 G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -638,7 +638,7 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C7" s="3">
         <v>0.8651821862348178</v>
@@ -659,7 +659,7 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="3">
         <v>0.75870445344129556</v>
@@ -680,10 +680,10 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="3">
-        <v>0.66949152542372881</v>
+        <v>0.66949152542372903</v>
       </c>
       <c r="D9" s="3">
         <v>0.7192982456140351</v>
@@ -701,7 +701,7 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="4">
         <v>0.72033898305084743</v>
@@ -829,7 +829,7 @@
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C16" s="3">
         <v>0.82295373665480431</v>
@@ -850,7 +850,7 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" s="3">
         <v>0.71174377224199292</v>
@@ -871,7 +871,7 @@
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="3">
         <v>0.6701754385964912</v>
@@ -892,7 +892,7 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="4">
         <v>0.68771929824561406</v>
